--- a/WIXWAVITYPROJECT/WebUIMaps.xlsx
+++ b/WIXWAVITYPROJECT/WebUIMaps.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="242">
   <si>
     <t>PageName</t>
   </si>
@@ -508,9 +508,6 @@
     <t>//img[@src='oneteamV2/images/logo/wavity_logo_white_text.png']</t>
   </si>
   <si>
-    <t>//div[contains(@class,'recordCreateBtn')]//button[contains(@class,'newRecordCreate')]</t>
-  </si>
-  <si>
     <t xml:space="preserve">//div[contains(@class,'tableMainContainer')]//tbody/tr </t>
   </si>
   <si>
@@ -631,12 +628,6 @@
     <t>(//span[contains(.,'[$]')]/parent::div/following-sibling::div//input)[[*]] |(//span[contains(.,'[$]')]//parent::div//following-sibling::div//button)[1] | //span[contains(.,'[$]')]//parent::div//following-sibling::div//div[contains(.,'+ Add') and contains(@class,'showTags')] | //span[contains(.,'[$]')]//parent::div//following-sibling::div//div[contains(@id,'date')] | (//span[contains(.,'[$]')]/parent::div/following-sibling::div//div)//label[contains(.,'[*]')] | (//span[contains(.,'[$]')]/parent::div//following-sibling::div//div[@id='datePicker'])//input[[*]] | (//span[contains(.,'[$]')]/parent::div//following-sibling::div//div[@id='dateRangePicker']//input)[[*]] | //span[contains(.,'[$]')]//parent::div//following-sibling::div//div[contains(@class,'note-editable card-block')]</t>
   </si>
   <si>
-    <t>AddDataToTextBlock</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> //span[contains(.,'[$]')]//parent::div//following-sibling::div//div[contains(@class,'note-placeholder')] |  //span[contains(.,'[$]')]//parent::div//following-sibling::div//div[contains(@class,'recordTextBlock')]</t>
-  </si>
-  <si>
     <t>(//span[contains(.,'[$]')]/parent::div/following-sibling::div//input)[[*]] | //span[contains(.,'[$]')]//parent::div//following-sibling::div//div[contains(@class,'note-placeholder')] |  //span[contains(.,'[$]')]//parent::div//following-sibling::div//div[contains(@class,'recordTextBlock')]</t>
   </si>
   <si>
@@ -644,6 +635,111 @@
   </si>
   <si>
     <t>(//span[contains(.,'[$]')]//following-sibling::input)[[*]] | (//span[contains(.,'[$]')]//following-sibling::select)[[*]]</t>
+  </si>
+  <si>
+    <t>selectControlObj</t>
+  </si>
+  <si>
+    <t>selectControlObj1</t>
+  </si>
+  <si>
+    <t>//span[.='[$]']//parent::div//select</t>
+  </si>
+  <si>
+    <t>AddAnOptionInCategory</t>
+  </si>
+  <si>
+    <t>(//div[contains(@class,'pageDroppableContent')]//child::div[contains(@class,'DataControlContainer')][[$]]//div[contains(@class,'inputOption')]//input[@placeholder='[*]'])[[%]]</t>
+  </si>
+  <si>
+    <t>//div[contains(@class,'pageDroppableContent')]//child::div[contains(@class,'DataControlContainer')][[$]]//button[.='Add option']</t>
+  </si>
+  <si>
+    <t>AddDataToDropDown</t>
+  </si>
+  <si>
+    <t>//span[contains(.,'[$]')]//parent::div//following-sibling::div//button</t>
+  </si>
+  <si>
+    <t>AddDataToDropDown1</t>
+  </si>
+  <si>
+    <t>LabelInspect</t>
+  </si>
+  <si>
+    <t>//span[contains(.,'[$]')]</t>
+  </si>
+  <si>
+    <t>dropDownSearch</t>
+  </si>
+  <si>
+    <t>//div[@class='bs-searchbox']/input</t>
+  </si>
+  <si>
+    <t>(//ul[contains(@class,'dropdown-menu')]//a//span[.='[$]'])[1]</t>
+  </si>
+  <si>
+    <t>//span[contains(.,'[$]')]//parent::div//following-sibling::div//label[contains(.,'[*]')]</t>
+  </si>
+  <si>
+    <t>OtherDropdownDataInput</t>
+  </si>
+  <si>
+    <t>OtherDropdown_LinearDataClick</t>
+  </si>
+  <si>
+    <t>SegementClick</t>
+  </si>
+  <si>
+    <t>//span[contains(.,'[$]')]//parent::div//following-sibling::div//a[contains(@display,'[*]')]</t>
+  </si>
+  <si>
+    <t>//span[contains(.,'[$]')]//parent::div//following-sibling::div//label[contains(.,'[*]')]//following-sibling::div/input</t>
+  </si>
+  <si>
+    <t>selectObject</t>
+  </si>
+  <si>
+    <t>(//div[contains(@class,'pageDroppableContent')]//child::div[contains(@class,'DataControlContainer')][[$]]//span[contains(.,'[*]')]//parent::div//select)[1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(//button[contains(@class,'newRecordCreate')])[1] </t>
+  </si>
+  <si>
+    <t>addRecord1</t>
+  </si>
+  <si>
+    <t>(//button[contains(.,'New')])[1]</t>
+  </si>
+  <si>
+    <t>DependentOb</t>
+  </si>
+  <si>
+    <t>DependentOb1</t>
+  </si>
+  <si>
+    <t>(//div[contains(@class,'pageDroppableContent')]//child::div[contains(@class,'DataControlContainer')])[[$]]//span[contains(.,'[*]')]//parent::div//button</t>
+  </si>
+  <si>
+    <t>(//div[contains(@class,'appDesignerCenterPanel')]//div[contains(@class,'appDesignerDataControlContainer')][[$]]//div[@class='row']//span[contains(.,'[*]')]//following-sibling::select)[1]</t>
+  </si>
+  <si>
+    <t>refObj</t>
+  </si>
+  <si>
+    <t>(//div[contains(@class,'appDesignerCenterPanel')]//div[contains(@class,'appDesignerDataControlContainer')])[[$]]//span[contains(.,'[*]')]//following-sibling::div//div//ul//span[contains(.,'[%]')]</t>
+  </si>
+  <si>
+    <t>refObjSearch</t>
+  </si>
+  <si>
+    <t>(//div[contains(@class,'appDesignerCenterPanel')]//div[contains(@class,'appDesignerDataControlContainer')])[[$]]//span[contains(.,'[*]')]//following-sibling::div//input</t>
+  </si>
+  <si>
+    <t>(//div[contains(@class,'pageDroppableContent')]//child::div[contains(@class,'DataControlContainer')])[[$]]//span[contains(.,'[*]')]</t>
+  </si>
+  <si>
+    <t>clickLabelObject</t>
   </si>
 </sst>
 </file>
@@ -1019,10 +1115,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C103"/>
+  <dimension ref="A1:C119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C30" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1103,10 +1199,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1114,10 +1210,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1128,7 +1224,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1392,7 +1488,7 @@
         <v>115</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="75">
@@ -1400,32 +1496,32 @@
         <v>120</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="34.5" customHeight="1">
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B35" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="30">
-      <c r="A36" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>205</v>
-      </c>
       <c r="C36" s="5" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1433,10 +1529,10 @@
         <v>120</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>118</v>
+        <v>210</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>116</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1444,10 +1540,10 @@
         <v>120</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>119</v>
+        <v>216</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>117</v>
+        <v>217</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1455,10 +1551,10 @@
         <v>120</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>122</v>
+        <v>215</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>121</v>
+        <v>220</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1466,10 +1562,10 @@
         <v>120</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>123</v>
+        <v>232</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>124</v>
+        <v>234</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1477,10 +1573,10 @@
         <v>120</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>126</v>
+        <v>241</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>125</v>
+        <v>240</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1488,43 +1584,41 @@
         <v>120</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>128</v>
+        <v>233</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>127</v>
+        <v>235</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="5" t="s">
-        <v>120</v>
-      </c>
+      <c r="A43" s="5"/>
       <c r="B43" s="5" t="s">
-        <v>129</v>
+        <v>238</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="30">
       <c r="A44" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>131</v>
+        <v>236</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="30">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>132</v>
+        <v>218</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>160</v>
+        <v>219</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1532,10 +1626,10 @@
         <v>120</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>133</v>
+        <v>213</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>164</v>
+        <v>214</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1543,21 +1637,21 @@
         <v>120</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>158</v>
+        <v>223</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="30">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>134</v>
+        <v>227</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>148</v>
+        <v>228</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1565,10 +1659,10 @@
         <v>120</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>136</v>
+        <v>224</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>135</v>
+        <v>225</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1576,21 +1670,21 @@
         <v>120</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>138</v>
+        <v>222</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="34.5" customHeight="1">
       <c r="A51" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>140</v>
+        <v>205</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>139</v>
+        <v>204</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1598,10 +1692,10 @@
         <v>120</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1609,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>155</v>
+        <v>119</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1620,10 +1714,10 @@
         <v>120</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1631,10 +1725,10 @@
         <v>120</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1642,10 +1736,10 @@
         <v>120</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>166</v>
+        <v>126</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>165</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1653,10 +1747,10 @@
         <v>120</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>170</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1664,10 +1758,10 @@
         <v>120</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>168</v>
+        <v>129</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1675,21 +1769,21 @@
         <v>120</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>171</v>
+        <v>131</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="30">
       <c r="A60" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>173</v>
+        <v>132</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1697,21 +1791,19 @@
         <v>120</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="5" t="s">
-        <v>120</v>
-      </c>
+      <c r="A62" s="5"/>
       <c r="B62" s="5" t="s">
-        <v>178</v>
+        <v>230</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>179</v>
+        <v>231</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1719,32 +1811,32 @@
         <v>120</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="30">
       <c r="A64" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="30">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>184</v>
+        <v>136</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>185</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1752,10 +1844,10 @@
         <v>120</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>196</v>
+        <v>138</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>197</v>
+        <v>137</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1763,10 +1855,10 @@
         <v>120</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>186</v>
+        <v>140</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>187</v>
+        <v>139</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1774,10 +1866,10 @@
         <v>120</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1785,10 +1877,10 @@
         <v>120</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>191</v>
+        <v>155</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>190</v>
+        <v>156</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1796,10 +1888,10 @@
         <v>120</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>193</v>
+        <v>151</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>192</v>
+        <v>152</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1807,10 +1899,10 @@
         <v>120</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>195</v>
+        <v>141</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>194</v>
+        <v>142</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1818,197 +1910,197 @@
         <v>120</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="7" t="s">
-        <v>32</v>
+      <c r="A73" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>70</v>
+        <v>169</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="5" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>34</v>
+        <v>167</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>35</v>
+        <v>168</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="5" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>36</v>
+        <v>170</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>38</v>
+        <v>175</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="5" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>39</v>
+        <v>171</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="5" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>40</v>
+        <v>176</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="5" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>42</v>
+        <v>177</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>72</v>
+        <v>178</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="5" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>43</v>
+        <v>180</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>44</v>
+        <v>179</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="5" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>45</v>
+        <v>182</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="30">
       <c r="A81" s="5" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>47</v>
+        <v>183</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>48</v>
+        <v>184</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="5" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>49</v>
+        <v>195</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>50</v>
+        <v>196</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="5" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>51</v>
+        <v>185</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>52</v>
+        <v>186</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="5" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>54</v>
+        <v>188</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="5" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>55</v>
+        <v>190</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>56</v>
+        <v>189</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="5" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>75</v>
+        <v>192</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>57</v>
+        <v>191</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="5" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>58</v>
+        <v>194</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>59</v>
+        <v>193</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="5" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>60</v>
+        <v>174</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>61</v>
+        <v>173</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="5" t="s">
+      <c r="A89" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2016,10 +2108,10 @@
         <v>32</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2027,10 +2119,10 @@
         <v>32</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2038,10 +2130,10 @@
         <v>32</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2049,10 +2141,10 @@
         <v>32</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2060,21 +2152,21 @@
         <v>32</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B95" s="6" t="s">
-        <v>77</v>
+      <c r="B95" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2082,10 +2174,10 @@
         <v>32</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2093,10 +2185,10 @@
         <v>32</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2104,10 +2196,10 @@
         <v>32</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2115,10 +2207,10 @@
         <v>32</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2126,10 +2218,10 @@
         <v>32</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>86</v>
+        <v>53</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2137,10 +2229,10 @@
         <v>32</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>87</v>
+        <v>55</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2148,10 +2240,10 @@
         <v>32</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>88</v>
+        <v>75</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2159,9 +2251,185 @@
         <v>32</v>
       </c>
       <c r="B103" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B119" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C103" s="6" t="s">
+      <c r="C119" s="6" t="s">
         <v>89</v>
       </c>
     </row>
